--- a/SP_Sklad/TempLate/ProductionPlans.xlsx
+++ b/SP_Sklad/TempLate/ProductionPlans.xlsx
@@ -7,21 +7,23 @@
     <workbookView xWindow="135" yWindow="840" windowWidth="14175" windowHeight="7260"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="Виробництва" sheetId="1" r:id="rId1"/>
+    <sheet name="Сировина" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="range1">Лист1!#REF!</definedName>
-    <definedName name="sectionPrice">Лист1!#REF!</definedName>
-    <definedName name="SummaryField">Лист1!$A$13:$J$14</definedName>
-    <definedName name="WayBillItems">Лист1!$A$10:$J$11</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="0">Лист1!$9:$9</definedName>
+    <definedName name="range1">Виробництва!#REF!</definedName>
+    <definedName name="sectionPrice">Виробництва!#REF!</definedName>
+    <definedName name="SummaryField">Виробництва!$A$13:$J$14</definedName>
+    <definedName name="WayBillItems">Виробництва!$A$10:$J$11</definedName>
+    <definedName name="WayBillItems2">Сировина!$A$6:$H$7</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">Виробництва!$9:$9</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
   <si>
     <t>Назва товару</t>
   </si>
@@ -60,6 +62,12 @@
   </si>
   <si>
     <t>Примітка:</t>
+  </si>
+  <si>
+    <t>Список сирони згідно планувння виробництва №</t>
+  </si>
+  <si>
+    <t>Кількість</t>
   </si>
 </sst>
 </file>
@@ -417,6 +425,15 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -456,15 +473,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -839,7 +847,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G13" sqref="G13"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -858,14 +866,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="27" customHeight="1">
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
       <c r="H1" s="13" t="e">
         <f>WayBillList_NUM</f>
         <v>#NAME?</v>
@@ -888,12 +896,12 @@
       <c r="B3" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="23" t="e">
+      <c r="C3" s="26" t="e">
         <f>WayBillList_ONDATE</f>
         <v>#NAME?</v>
       </c>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
@@ -937,49 +945,49 @@
       <c r="D6" s="6"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1">
-      <c r="B7" s="24" t="s">
+      <c r="B7" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="28" t="s">
+      <c r="C7" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="D7" s="29"/>
-      <c r="E7" s="29"/>
-      <c r="F7" s="30"/>
-      <c r="G7" s="24" t="s">
+      <c r="D7" s="32"/>
+      <c r="E7" s="32"/>
+      <c r="F7" s="33"/>
+      <c r="G7" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="H7" s="24" t="s">
+      <c r="H7" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="I7" s="24" t="s">
+      <c r="I7" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="J7" s="24" t="s">
+      <c r="J7" s="27" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="15.75" customHeight="1">
-      <c r="B8" s="25"/>
-      <c r="C8" s="31"/>
-      <c r="D8" s="32"/>
-      <c r="E8" s="32"/>
-      <c r="F8" s="33"/>
-      <c r="G8" s="25"/>
-      <c r="H8" s="25"/>
-      <c r="I8" s="25"/>
-      <c r="J8" s="25"/>
+      <c r="B8" s="28"/>
+      <c r="C8" s="34"/>
+      <c r="D8" s="35"/>
+      <c r="E8" s="35"/>
+      <c r="F8" s="36"/>
+      <c r="G8" s="28"/>
+      <c r="H8" s="28"/>
+      <c r="I8" s="28"/>
+      <c r="J8" s="28"/>
     </row>
     <row r="9" spans="1:10" ht="13.5" customHeight="1">
       <c r="B9" s="12">
         <v>1</v>
       </c>
-      <c r="C9" s="34">
+      <c r="C9" s="37">
         <v>2</v>
       </c>
-      <c r="D9" s="34"/>
-      <c r="E9" s="34"/>
-      <c r="F9" s="34"/>
+      <c r="D9" s="37"/>
+      <c r="E9" s="37"/>
+      <c r="F9" s="37"/>
       <c r="G9" s="12">
         <v>3</v>
       </c>
@@ -999,33 +1007,33 @@
         <f>WayBillItems_NUM</f>
         <v>#NAME?</v>
       </c>
-      <c r="C10" s="22" t="e">
+      <c r="C10" s="38" t="e">
         <f>WayBillItems_MATNAME</f>
         <v>#NAME?</v>
       </c>
-      <c r="D10" s="22"/>
-      <c r="E10" s="22"/>
-      <c r="F10" s="22"/>
+      <c r="D10" s="38"/>
+      <c r="E10" s="38"/>
+      <c r="F10" s="38"/>
       <c r="G10" s="11" t="e">
         <f>WayBillItems_MSRNAME</f>
         <v>#NAME?</v>
       </c>
-      <c r="H10" s="35" t="e">
+      <c r="H10" s="22" t="e">
         <f>WayBillItems_Remain</f>
         <v>#NAME?</v>
       </c>
-      <c r="I10" s="35" t="e">
+      <c r="I10" s="22" t="e">
         <f>WayBillItems_Total</f>
         <v>#NAME?</v>
       </c>
-      <c r="J10" s="36" t="e">
+      <c r="J10" s="23" t="e">
         <f>WayBillItems_WhName</f>
         <v>#NAME?</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="9" customHeight="1">
-      <c r="F11" s="26"/>
-      <c r="G11" s="26"/>
+      <c r="F11" s="29"/>
+      <c r="G11" s="29"/>
       <c r="H11" s="17"/>
       <c r="I11" s="17"/>
       <c r="J11" s="18"/>
@@ -1057,7 +1065,7 @@
       <c r="B15" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="37" t="e">
+      <c r="C15" s="24" t="e">
         <f>WayBillList_Notes</f>
         <v>#NAME?</v>
       </c>
@@ -1068,7 +1076,7 @@
       <c r="C18" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D18" s="38" t="e">
+      <c r="D18" s="25" t="e">
         <f>WayBillList_PERSONNAME</f>
         <v>#NAME?</v>
       </c>
@@ -1101,4 +1109,111 @@
     <oddFooter>&amp;CСторінка &amp;P из &amp;N</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="1" style="2" customWidth="1"/>
+    <col min="2" max="2" width="7.42578125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="7.28515625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="13.140625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="23.85546875" style="2" customWidth="1"/>
+    <col min="7" max="7" width="11.7109375" style="2" customWidth="1"/>
+    <col min="8" max="8" width="13.140625" style="2" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="27" customHeight="1">
+      <c r="B1" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="13" t="e">
+        <f>WayBillList_NUM</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="15" customHeight="1">
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+    </row>
+    <row r="3" spans="1:8" ht="5.25" customHeight="1">
+      <c r="B3" s="5"/>
+      <c r="D3" s="6"/>
+    </row>
+    <row r="4" spans="1:8" ht="15.75" customHeight="1">
+      <c r="B4" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="H4" s="27" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="15.75" customHeight="1">
+      <c r="B5" s="28"/>
+      <c r="C5" s="34"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="35"/>
+      <c r="F5" s="36"/>
+      <c r="G5" s="28"/>
+      <c r="H5" s="28"/>
+    </row>
+    <row r="6" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A6" s="4"/>
+      <c r="B6" s="11" t="e">
+        <f>WayBillItems2_Num</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="C6" s="38" t="e">
+        <f>WayBillItems2_MatName</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="D6" s="38"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="38"/>
+      <c r="G6" s="11" t="e">
+        <f>WayBillItems2_MsrName</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="H6" s="22" t="e">
+        <f>WayBillItems2_TotalAmount</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:F5"/>
+    <mergeCell ref="G4:G5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/SP_Sklad/TempLate/ProductionPlans.xlsx
+++ b/SP_Sklad/TempLate/ProductionPlans.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24228"/>
   <workbookPr codeName="ЭтаКнига" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WinVSProjects\SP-Sklad\SP_Sklad\TempLate\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67DFD6DA-B190-49D5-A9E3-172CD77BE3D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="135" yWindow="840" windowWidth="14175" windowHeight="7260"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Виробництва" sheetId="1" r:id="rId1"/>
@@ -12,14 +18,48 @@
   </sheets>
   <definedNames>
     <definedName name="range1">Виробництва!#REF!</definedName>
+    <definedName name="RawMatGrp">Сировина!$A$6:$H$9</definedName>
     <definedName name="sectionPrice">Виробництва!#REF!</definedName>
     <definedName name="SummaryField">Виробництва!$A$13:$J$14</definedName>
     <definedName name="WayBillItems">Виробництва!$A$10:$J$11</definedName>
-    <definedName name="WayBillItems2">Сировина!$A$6:$H$7</definedName>
+    <definedName name="WayBillItems2">Сировина!$A$7:$H$8</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Виробництва!$9:$9</definedName>
   </definedNames>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
+</file>
+
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -73,11 +113,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-FC22]d\ mmmm\ yyyy&quot; р.&quot;;@"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial Cyr"/>
@@ -165,8 +205,15 @@
       <family val="1"/>
       <charset val="204"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -185,8 +232,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="16">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -365,11 +418,63 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="hair">
+        <color indexed="55"/>
+      </left>
+      <right style="hair">
+        <color indexed="55"/>
+      </right>
+      <top style="hair">
+        <color indexed="55"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="55"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="55"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="55"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="55"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="55"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="55"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="55"/>
+      </right>
+      <top style="thin">
+        <color indexed="55"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="55"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -378,8 +483,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -390,7 +494,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -401,78 +504,87 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="10" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="2" fontId="10" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -553,6 +665,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -600,7 +715,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -632,9 +747,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -666,6 +799,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -841,16 +992,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Лист1"/>
-  <dimension ref="A1:J19"/>
+  <dimension ref="B1:J19"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="1" style="2" customWidth="1"/>
     <col min="2" max="2" width="11.28515625" style="2" customWidth="1"/>
@@ -865,58 +1016,58 @@
     <col min="11" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="27" customHeight="1">
-      <c r="B1" s="30" t="s">
+    <row r="1" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="13" t="e">
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="11" t="e">
         <f>WayBillList_NUM</f>
         <v>#NAME?</v>
       </c>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-    </row>
-    <row r="2" spans="1:10" ht="15" customHeight="1">
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-    </row>
-    <row r="3" spans="1:10" ht="12.75" customHeight="1">
-      <c r="B3" s="8" t="s">
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+    </row>
+    <row r="2" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+    </row>
+    <row r="3" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="26" t="e">
+      <c r="C3" s="23" t="e">
         <f>WayBillList_ONDATE</f>
         <v>#NAME?</v>
       </c>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
     </row>
-    <row r="4" spans="1:10" ht="13.5" customHeight="1">
-      <c r="B4" s="5" t="s">
+    <row r="4" spans="2:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="6" t="e">
+      <c r="C4" s="5" t="e">
         <f>WayBillList_WHNAME</f>
         <v>#NAME?</v>
       </c>
-      <c r="D4" s="6"/>
+      <c r="D4" s="5"/>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
@@ -924,15 +1075,15 @@
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
     </row>
-    <row r="5" spans="1:10" ht="13.5" customHeight="1">
-      <c r="B5" s="5" t="s">
+    <row r="5" spans="2:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="6" t="e">
+      <c r="C5" s="5" t="e">
         <f>WayBillList_ManufactoryName</f>
         <v>#NAME?</v>
       </c>
-      <c r="D5" s="6"/>
+      <c r="D5" s="5"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
@@ -940,153 +1091,149 @@
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
     </row>
-    <row r="6" spans="1:10" ht="5.25" customHeight="1">
-      <c r="B6" s="5"/>
-      <c r="D6" s="6"/>
-    </row>
-    <row r="7" spans="1:10" ht="15.75" customHeight="1">
-      <c r="B7" s="27" t="s">
+    <row r="6" spans="2:10" ht="5.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="4"/>
+      <c r="D6" s="5"/>
+    </row>
+    <row r="7" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="31" t="s">
+      <c r="C7" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="D7" s="32"/>
-      <c r="E7" s="32"/>
-      <c r="F7" s="33"/>
-      <c r="G7" s="27" t="s">
+      <c r="D7" s="29"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="H7" s="27" t="s">
+      <c r="H7" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="I7" s="27" t="s">
+      <c r="I7" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="J7" s="27" t="s">
+      <c r="J7" s="24" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15.75" customHeight="1">
-      <c r="B8" s="28"/>
-      <c r="C8" s="34"/>
-      <c r="D8" s="35"/>
-      <c r="E8" s="35"/>
-      <c r="F8" s="36"/>
-      <c r="G8" s="28"/>
-      <c r="H8" s="28"/>
-      <c r="I8" s="28"/>
-      <c r="J8" s="28"/>
-    </row>
-    <row r="9" spans="1:10" ht="13.5" customHeight="1">
-      <c r="B9" s="12">
+    <row r="8" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="25"/>
+      <c r="C8" s="31"/>
+      <c r="D8" s="32"/>
+      <c r="E8" s="32"/>
+      <c r="F8" s="33"/>
+      <c r="G8" s="25"/>
+      <c r="H8" s="25"/>
+      <c r="I8" s="25"/>
+      <c r="J8" s="25"/>
+    </row>
+    <row r="9" spans="2:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="10">
         <v>1</v>
       </c>
-      <c r="C9" s="37">
+      <c r="C9" s="34">
         <v>2</v>
       </c>
-      <c r="D9" s="37"/>
-      <c r="E9" s="37"/>
-      <c r="F9" s="37"/>
-      <c r="G9" s="12">
+      <c r="D9" s="34"/>
+      <c r="E9" s="34"/>
+      <c r="F9" s="34"/>
+      <c r="G9" s="10">
         <v>3</v>
       </c>
-      <c r="H9" s="15">
+      <c r="H9" s="10">
         <v>4</v>
       </c>
-      <c r="I9" s="15">
+      <c r="I9" s="10">
         <v>5</v>
       </c>
-      <c r="J9" s="12">
+      <c r="J9" s="10">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="12.75" customHeight="1">
-      <c r="A10" s="4"/>
-      <c r="B10" s="11" t="e">
+    <row r="10" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="9" t="e">
         <f>WayBillItems_NUM</f>
         <v>#NAME?</v>
       </c>
-      <c r="C10" s="38" t="e">
+      <c r="C10" s="35" t="e">
         <f>WayBillItems_MATNAME</f>
         <v>#NAME?</v>
       </c>
-      <c r="D10" s="38"/>
-      <c r="E10" s="38"/>
-      <c r="F10" s="38"/>
-      <c r="G10" s="11" t="e">
+      <c r="D10" s="35"/>
+      <c r="E10" s="35"/>
+      <c r="F10" s="35"/>
+      <c r="G10" s="9" t="e">
         <f>WayBillItems_MSRNAME</f>
         <v>#NAME?</v>
       </c>
-      <c r="H10" s="22" t="e">
+      <c r="H10" s="18" t="e">
         <f>WayBillItems_Remain</f>
         <v>#NAME?</v>
       </c>
-      <c r="I10" s="22" t="e">
+      <c r="I10" s="18" t="e">
         <f>WayBillItems_Total</f>
         <v>#NAME?</v>
       </c>
-      <c r="J10" s="23" t="e">
+      <c r="J10" s="9" t="e">
         <f>WayBillItems_WhName</f>
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="9" customHeight="1">
-      <c r="F11" s="29"/>
-      <c r="G11" s="29"/>
-      <c r="H11" s="17"/>
-      <c r="I11" s="17"/>
-      <c r="J11" s="18"/>
-    </row>
-    <row r="12" spans="1:10" ht="12.75" customHeight="1">
+    <row r="11" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F11" s="26"/>
+      <c r="G11" s="26"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="14"/>
+    </row>
+    <row r="12" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="15.75" customHeight="1">
-      <c r="B13" s="19"/>
-      <c r="C13" s="20"/>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="21"/>
-      <c r="G13" s="14" t="e">
+    <row r="13" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="15"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="10" t="e">
         <f>SummaryField_MsrName</f>
         <v>#NAME?</v>
       </c>
-      <c r="H13" s="15"/>
-      <c r="I13" s="16" t="e">
+      <c r="H13" s="10"/>
+      <c r="I13" s="12" t="e">
         <f>SummaryField_Total</f>
         <v>#NAME?</v>
       </c>
-      <c r="J13" s="16"/>
-    </row>
-    <row r="14" spans="1:10" ht="12.75" customHeight="1"/>
-    <row r="15" spans="1:10" ht="12.75" customHeight="1">
+      <c r="J13" s="12"/>
+    </row>
+    <row r="14" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="15" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="24" t="e">
+      <c r="C15" s="19" t="e">
         <f>WayBillList_Notes</f>
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="12.75" customHeight="1"/>
-    <row r="17" spans="3:9" ht="12.75" customHeight="1"/>
-    <row r="18" spans="3:9" ht="12.75" customHeight="1">
+    <row r="16" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="17" spans="3:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="18" spans="3:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C18" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D18" s="25" t="e">
+      <c r="D18" s="20" t="e">
         <f>WayBillList_PERSONNAME</f>
         <v>#NAME?</v>
       </c>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="10"/>
-      <c r="I18" s="10"/>
-    </row>
-    <row r="19" spans="3:9" ht="12.75" customHeight="1"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+    </row>
+    <row r="19" spans="3:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="J7:J8"/>
@@ -1112,12 +1259,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="B1:H7"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="1" style="2" customWidth="1"/>
     <col min="2" max="2" width="7.42578125" style="2" customWidth="1"/>
@@ -1130,90 +1277,103 @@
     <col min="9" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="27" customHeight="1">
-      <c r="B1" s="30" t="s">
+    <row r="1" spans="2:8" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="13" t="e">
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="11" t="e">
         <f>WayBillList_NUM</f>
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="15" customHeight="1">
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-    </row>
-    <row r="3" spans="1:8" ht="5.25" customHeight="1">
-      <c r="B3" s="5"/>
-      <c r="D3" s="6"/>
-    </row>
-    <row r="4" spans="1:8" ht="15.75" customHeight="1">
-      <c r="B4" s="27" t="s">
+    <row r="2" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+    </row>
+    <row r="3" spans="2:8" ht="5.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="4"/>
+      <c r="D3" s="5"/>
+    </row>
+    <row r="4" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="31" t="s">
+      <c r="C4" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="32"/>
-      <c r="E4" s="32"/>
-      <c r="F4" s="33"/>
-      <c r="G4" s="27" t="s">
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="H4" s="27" t="s">
+      <c r="H4" s="24" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="15.75" customHeight="1">
-      <c r="B5" s="28"/>
-      <c r="C5" s="34"/>
-      <c r="D5" s="35"/>
-      <c r="E5" s="35"/>
-      <c r="F5" s="36"/>
-      <c r="G5" s="28"/>
-      <c r="H5" s="28"/>
-    </row>
-    <row r="6" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A6" s="4"/>
-      <c r="B6" s="11" t="e">
-        <f>WayBillItems2_Num</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="C6" s="38" t="e">
-        <f>WayBillItems2_MatName</f>
-        <v>#NAME?</v>
-      </c>
+    <row r="5" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="25"/>
+      <c r="C5" s="31"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="32"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="25"/>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B6" s="37" t="e" cm="1">
+        <f t="array" ref="B6">RawMatGrp_RawMatTypeName</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="C6" s="38"/>
       <c r="D6" s="38"/>
       <c r="E6" s="38"/>
       <c r="F6" s="38"/>
-      <c r="G6" s="11" t="e">
+      <c r="G6" s="38"/>
+      <c r="H6" s="39"/>
+    </row>
+    <row r="7" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="21" t="e">
+        <f>WayBillItems2_Num</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="C7" s="36" t="e">
+        <f>WayBillItems2_MatName</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="D7" s="36"/>
+      <c r="E7" s="36"/>
+      <c r="F7" s="36"/>
+      <c r="G7" s="21" t="e">
         <f>WayBillItems2_MsrName</f>
         <v>#NAME?</v>
       </c>
-      <c r="H6" s="22" t="e">
+      <c r="H7" s="22" t="e">
         <f>WayBillItems2_TotalAmount</f>
         <v>#NAME?</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="7">
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="B6:H6"/>
     <mergeCell ref="H4:H5"/>
-    <mergeCell ref="C6:F6"/>
     <mergeCell ref="B1:G1"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="C4:F5"/>
     <mergeCell ref="G4:G5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="178" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId1"/>
 </worksheet>
 </file>
--- a/SP_Sklad/TempLate/ProductionPlans.xlsx
+++ b/SP_Sklad/TempLate/ProductionPlans.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24228"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr codeName="ЭтаКнига" defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WinVSProjects\SP-Sklad\SP_Sklad\TempLate\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67DFD6DA-B190-49D5-A9E3-172CD77BE3D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Виробництва" sheetId="1" r:id="rId1"/>
@@ -41,13 +35,13 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
   <futureMetadata name="XLDAPR" count="1">
     <bk>
-      <extLst>
+      <extLst xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
         <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
           <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
         </ext>
@@ -113,11 +107,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-FC22]d\ mmmm\ yyyy&quot; р.&quot;;@"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="13">
     <font>
       <sz val="10"/>
       <name val="Arial Cyr"/>
@@ -536,15 +530,21 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -568,12 +568,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -715,7 +709,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -747,27 +741,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -799,24 +775,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -992,16 +950,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Лист1"/>
   <dimension ref="B1:J19"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="1" style="2" customWidth="1"/>
     <col min="2" max="2" width="11.28515625" style="2" customWidth="1"/>
@@ -1016,15 +974,15 @@
     <col min="11" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="27" t="s">
+    <row r="1" spans="2:10" ht="27" customHeight="1">
+      <c r="B1" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
       <c r="H1" s="11" t="e">
         <f>WayBillList_NUM</f>
         <v>#NAME?</v>
@@ -1032,7 +990,7 @@
       <c r="I1" s="11"/>
       <c r="J1" s="11"/>
     </row>
-    <row r="2" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:10" ht="15" customHeight="1">
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
@@ -1043,23 +1001,23 @@
       <c r="I2" s="6"/>
       <c r="J2" s="6"/>
     </row>
-    <row r="3" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:10" ht="12.75" customHeight="1">
       <c r="B3" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="23" t="e">
+      <c r="C3" s="27" t="e">
         <f>WayBillList_ONDATE</f>
         <v>#NAME?</v>
       </c>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
     </row>
-    <row r="4" spans="2:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:10" ht="13.5" customHeight="1">
       <c r="B4" s="4" t="s">
         <v>6</v>
       </c>
@@ -1075,7 +1033,7 @@
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
     </row>
-    <row r="5" spans="2:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:10" ht="13.5" customHeight="1">
       <c r="B5" s="4" t="s">
         <v>7</v>
       </c>
@@ -1091,54 +1049,54 @@
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
     </row>
-    <row r="6" spans="2:10" ht="5.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:10" ht="5.25" customHeight="1">
       <c r="B6" s="4"/>
       <c r="D6" s="5"/>
     </row>
-    <row r="7" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="24" t="s">
+    <row r="7" spans="2:10" ht="15.75" customHeight="1">
+      <c r="B7" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="28" t="s">
+      <c r="C7" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="D7" s="29"/>
-      <c r="E7" s="29"/>
-      <c r="F7" s="30"/>
-      <c r="G7" s="24" t="s">
+      <c r="D7" s="31"/>
+      <c r="E7" s="31"/>
+      <c r="F7" s="32"/>
+      <c r="G7" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="H7" s="24" t="s">
+      <c r="H7" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="I7" s="24" t="s">
+      <c r="I7" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="J7" s="24" t="s">
+      <c r="J7" s="23" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="25"/>
-      <c r="C8" s="31"/>
-      <c r="D8" s="32"/>
-      <c r="E8" s="32"/>
-      <c r="F8" s="33"/>
-      <c r="G8" s="25"/>
-      <c r="H8" s="25"/>
-      <c r="I8" s="25"/>
-      <c r="J8" s="25"/>
-    </row>
-    <row r="9" spans="2:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:10" ht="15.75" customHeight="1">
+      <c r="B8" s="24"/>
+      <c r="C8" s="33"/>
+      <c r="D8" s="34"/>
+      <c r="E8" s="34"/>
+      <c r="F8" s="35"/>
+      <c r="G8" s="24"/>
+      <c r="H8" s="24"/>
+      <c r="I8" s="24"/>
+      <c r="J8" s="24"/>
+    </row>
+    <row r="9" spans="2:10" ht="13.5" customHeight="1">
       <c r="B9" s="10">
         <v>1</v>
       </c>
-      <c r="C9" s="34">
+      <c r="C9" s="25">
         <v>2</v>
       </c>
-      <c r="D9" s="34"/>
-      <c r="E9" s="34"/>
-      <c r="F9" s="34"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="25"/>
       <c r="G9" s="10">
         <v>3</v>
       </c>
@@ -1152,18 +1110,18 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:10" ht="12.75" customHeight="1">
       <c r="B10" s="9" t="e">
         <f>WayBillItems_NUM</f>
         <v>#NAME?</v>
       </c>
-      <c r="C10" s="35" t="e">
+      <c r="C10" s="26" t="e">
         <f>WayBillItems_MATNAME</f>
         <v>#NAME?</v>
       </c>
-      <c r="D10" s="35"/>
-      <c r="E10" s="35"/>
-      <c r="F10" s="35"/>
+      <c r="D10" s="26"/>
+      <c r="E10" s="26"/>
+      <c r="F10" s="26"/>
       <c r="G10" s="9" t="e">
         <f>WayBillItems_MSRNAME</f>
         <v>#NAME?</v>
@@ -1181,19 +1139,19 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="11" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F11" s="26"/>
-      <c r="G11" s="26"/>
+    <row r="11" spans="2:10" ht="9" customHeight="1">
+      <c r="F11" s="28"/>
+      <c r="G11" s="28"/>
       <c r="H11" s="13"/>
       <c r="I11" s="13"/>
       <c r="J11" s="14"/>
     </row>
-    <row r="12" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:10" ht="12.75" customHeight="1">
       <c r="B12" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:10" ht="15.75" customHeight="1">
       <c r="B13" s="15"/>
       <c r="C13" s="16"/>
       <c r="D13" s="16"/>
@@ -1210,8 +1168,8 @@
       </c>
       <c r="J13" s="12"/>
     </row>
-    <row r="14" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="15" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:10" ht="12.75" customHeight="1"/>
+    <row r="15" spans="2:10" ht="12.75" customHeight="1">
       <c r="B15" s="2" t="s">
         <v>12</v>
       </c>
@@ -1220,9 +1178,9 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="16" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="17" spans="3:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="18" spans="3:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:10" ht="12.75" customHeight="1"/>
+    <row r="17" spans="3:6" ht="12.75" customHeight="1"/>
+    <row r="18" spans="3:6" ht="12.75" customHeight="1">
       <c r="C18" s="2" t="s">
         <v>11</v>
       </c>
@@ -1233,20 +1191,20 @@
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
     </row>
-    <row r="19" spans="3:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="19" spans="3:6" ht="12.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="C10:F10"/>
     <mergeCell ref="C3:E3"/>
     <mergeCell ref="G7:G8"/>
     <mergeCell ref="F11:G11"/>
     <mergeCell ref="B1:G1"/>
     <mergeCell ref="B7:B8"/>
     <mergeCell ref="C7:F8"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="C10:F10"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -1259,12 +1217,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:H7"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="1" style="2" customWidth="1"/>
     <col min="2" max="2" width="7.42578125" style="2" customWidth="1"/>
@@ -1277,21 +1235,21 @@
     <col min="9" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="27" t="s">
+    <row r="1" spans="2:8" ht="27" customHeight="1">
+      <c r="B1" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
       <c r="H1" s="11" t="e">
         <f>WayBillList_NUM</f>
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="2" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:8" ht="15" customHeight="1">
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
@@ -1300,37 +1258,37 @@
       <c r="G2" s="6"/>
       <c r="H2" s="6"/>
     </row>
-    <row r="3" spans="2:8" ht="5.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:8" ht="5.25" customHeight="1">
       <c r="B3" s="4"/>
       <c r="D3" s="5"/>
     </row>
-    <row r="4" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="24" t="s">
+    <row r="4" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B4" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="28" t="s">
+      <c r="C4" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="24" t="s">
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="H4" s="24" t="s">
+      <c r="H4" s="23" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="25"/>
-      <c r="C5" s="31"/>
-      <c r="D5" s="32"/>
-      <c r="E5" s="32"/>
-      <c r="F5" s="33"/>
-      <c r="G5" s="25"/>
-      <c r="H5" s="25"/>
-    </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B5" s="24"/>
+      <c r="C5" s="33"/>
+      <c r="D5" s="34"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="35"/>
+      <c r="G5" s="24"/>
+      <c r="H5" s="24"/>
+    </row>
+    <row r="6" spans="2:8">
       <c r="B6" s="37" t="e" cm="1">
         <f t="array" ref="B6">RawMatGrp_RawMatTypeName</f>
         <v>#NAME?</v>
@@ -1342,7 +1300,7 @@
       <c r="G6" s="38"/>
       <c r="H6" s="39"/>
     </row>
-    <row r="7" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:8" ht="12.75" customHeight="1">
       <c r="B7" s="21" t="e">
         <f>WayBillItems2_Num</f>
         <v>#NAME?</v>
